--- a/POM/keywords/KeywordDriver.xlsx
+++ b/POM/keywords/KeywordDriver.xlsx
@@ -64,9 +64,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Login and Logout</t>
-  </si>
-  <si>
     <t>Create Lead</t>
   </si>
   <si>
@@ -77,6 +74,9 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Twitter Login</t>
   </si>
 </sst>
 </file>
@@ -538,7 +538,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -570,10 +570,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -584,7 +584,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
@@ -595,18 +595,18 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="C16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
